--- a/Results/Categorization/dp-partial-fasttext.xlsx
+++ b/Results/Categorization/dp-partial-fasttext.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1873">
   <si>
     <t>id</t>
   </si>
@@ -4027,499 +4027,451 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>|PRICES|PRICES|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>|FOOD|FOOD||FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|AMBIENCE|PRICES|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
     <t>AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|</t>
+    <t>SERVICE|SERVICE|FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD||SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE||FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>|SERVICE|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|||AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|FOOD||AMBIENCE|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD||PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|SERVICE</t>
   </si>
   <si>
     <t>PRICES|SERVICE|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>|PRICES|PRICES|FOOD|PRICES|FOOD</t>
+    <t>FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE||SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE||AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE|PRICES|PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES||PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD||PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE||AMBIENCE|AMBIENCE|PRICES|AMBIENCE||</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|SERVICE|SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>|FOOD|FOOD||FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|AMBIENCE|PRICES|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD||SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD||FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD||FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE||FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>|SERVICE|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|||AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|FOOD||AMBIENCE|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD||PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE||SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE||AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE|PRICES|PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES||PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD||PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE||AMBIENCE|AMBIENCE|PRICES|AMBIENCE||</t>
-  </si>
-  <si>
-    <t>FOOD||FOOD|SERVICE|SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|</t>
-  </si>
-  <si>
     <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|SERVICE</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
     <t>PRICES|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|</t>
-  </si>
-  <si>
     <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>AMBIENCE|PRICES|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|PRICES|FOOD|AMBIENCE</t>
@@ -6084,13 +6036,13 @@
         <v>1276</v>
       </c>
       <c r="F2" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G2" t="s">
-        <v>1507</v>
+        <v>1491</v>
       </c>
       <c r="H2" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6110,13 +6062,13 @@
         <v>1277</v>
       </c>
       <c r="F3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1508</v>
+        <v>1492</v>
       </c>
       <c r="H3" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6136,13 +6088,13 @@
         <v>1278</v>
       </c>
       <c r="F4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1509</v>
+        <v>1493</v>
       </c>
       <c r="H4" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6162,13 +6114,13 @@
         <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G5" t="s">
-        <v>1510</v>
+        <v>1494</v>
       </c>
       <c r="H5" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6188,13 +6140,13 @@
         <v>1279</v>
       </c>
       <c r="F6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1511</v>
+        <v>1495</v>
       </c>
       <c r="H6" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6214,13 +6166,13 @@
         <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1512</v>
+        <v>1496</v>
       </c>
       <c r="H7" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6240,13 +6192,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1513</v>
+        <v>1497</v>
       </c>
       <c r="H8" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6266,13 +6218,13 @@
         <v>1280</v>
       </c>
       <c r="F9" t="s">
-        <v>1343</v>
+        <v>1294</v>
       </c>
       <c r="G9" t="s">
-        <v>1514</v>
+        <v>1498</v>
       </c>
       <c r="H9" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6292,13 +6244,13 @@
         <v>1281</v>
       </c>
       <c r="F10" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1515</v>
+        <v>1499</v>
       </c>
       <c r="H10" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6318,13 +6270,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G11" t="s">
-        <v>1516</v>
+        <v>1500</v>
       </c>
       <c r="H11" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6344,13 +6296,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G12" t="s">
-        <v>1517</v>
+        <v>1501</v>
       </c>
       <c r="H12" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6370,13 +6322,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G13" t="s">
-        <v>1518</v>
+        <v>1502</v>
       </c>
       <c r="H13" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6396,13 +6348,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="G14" t="s">
-        <v>1519</v>
+        <v>1503</v>
       </c>
       <c r="H14" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6422,13 +6374,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="G15" t="s">
-        <v>1520</v>
+        <v>1504</v>
       </c>
       <c r="H15" t="s">
-        <v>1860</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6448,13 +6400,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="G16" t="s">
-        <v>1521</v>
+        <v>1505</v>
       </c>
       <c r="H16" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6474,13 +6426,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G17" t="s">
-        <v>1522</v>
+        <v>1506</v>
       </c>
       <c r="H17" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6500,13 +6452,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="G18" t="s">
-        <v>1523</v>
+        <v>1507</v>
       </c>
       <c r="H18" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6526,7 +6478,7 @@
         <v>1278</v>
       </c>
       <c r="H19" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6552,7 +6504,7 @@
         <v>947</v>
       </c>
       <c r="H20" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6578,7 +6530,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6598,13 +6550,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="G22" t="s">
-        <v>1524</v>
+        <v>1508</v>
       </c>
       <c r="H22" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6624,13 +6576,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="G23" t="s">
-        <v>1525</v>
+        <v>1509</v>
       </c>
       <c r="H23" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6656,7 +6608,7 @@
         <v>933</v>
       </c>
       <c r="H24" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6676,13 +6628,13 @@
         <v>1276</v>
       </c>
       <c r="F25" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="G25" t="s">
-        <v>1526</v>
+        <v>1510</v>
       </c>
       <c r="H25" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6702,13 +6654,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="G26" t="s">
-        <v>1527</v>
+        <v>1511</v>
       </c>
       <c r="H26" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6734,7 +6686,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6754,13 +6706,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G28" t="s">
-        <v>1528</v>
+        <v>1512</v>
       </c>
       <c r="H28" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6780,13 +6732,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="G29" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="H29" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6806,13 +6758,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="G30" t="s">
-        <v>1530</v>
+        <v>1514</v>
       </c>
       <c r="H30" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6832,13 +6784,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="G31" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="H31" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6864,7 +6816,7 @@
         <v>933</v>
       </c>
       <c r="H32" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6890,7 +6842,7 @@
         <v>959</v>
       </c>
       <c r="H33" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6916,7 +6868,7 @@
         <v>933</v>
       </c>
       <c r="H34" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6936,13 +6888,13 @@
         <v>1287</v>
       </c>
       <c r="F35" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="G35" t="s">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="H35" t="s">
-        <v>1862</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6962,13 +6914,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="G36" t="s">
-        <v>1533</v>
+        <v>1517</v>
       </c>
       <c r="H36" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6994,7 +6946,7 @@
         <v>962</v>
       </c>
       <c r="H37" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7014,13 +6966,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G38" t="s">
-        <v>1534</v>
+        <v>1518</v>
       </c>
       <c r="H38" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7040,13 +6992,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="G39" t="s">
-        <v>1535</v>
+        <v>1519</v>
       </c>
       <c r="H39" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7066,13 +7018,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="G40" t="s">
-        <v>1536</v>
+        <v>1520</v>
       </c>
       <c r="H40" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7092,13 +7044,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="G41" t="s">
-        <v>1537</v>
+        <v>1521</v>
       </c>
       <c r="H41" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7118,13 +7070,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G42" t="s">
-        <v>1538</v>
+        <v>1522</v>
       </c>
       <c r="H42" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7144,13 +7096,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="G43" t="s">
-        <v>1539</v>
+        <v>1523</v>
       </c>
       <c r="H43" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7176,7 +7128,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7196,13 +7148,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="G45" t="s">
-        <v>1540</v>
+        <v>1524</v>
       </c>
       <c r="H45" t="s">
-        <v>1863</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7222,13 +7174,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G46" t="s">
-        <v>1541</v>
+        <v>1525</v>
       </c>
       <c r="H46" t="s">
-        <v>1864</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7248,13 +7200,13 @@
         <v>1277</v>
       </c>
       <c r="F47" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G47" t="s">
-        <v>1542</v>
+        <v>1526</v>
       </c>
       <c r="H47" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7280,7 +7232,7 @@
         <v>989</v>
       </c>
       <c r="H48" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7300,13 +7252,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="H49" t="s">
-        <v>1865</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7326,13 +7278,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="G50" t="s">
-        <v>1544</v>
+        <v>1528</v>
       </c>
       <c r="H50" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7352,13 +7304,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="G51" t="s">
-        <v>1545</v>
+        <v>1529</v>
       </c>
       <c r="H51" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7378,13 +7330,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="G52" t="s">
-        <v>1546</v>
+        <v>1530</v>
       </c>
       <c r="H52" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7404,13 +7356,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="G53" t="s">
-        <v>1547</v>
+        <v>1531</v>
       </c>
       <c r="H53" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7430,13 +7382,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="H54" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7456,13 +7408,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="G55" t="s">
-        <v>1549</v>
+        <v>1533</v>
       </c>
       <c r="H55" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7482,13 +7434,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="G56" t="s">
-        <v>1550</v>
+        <v>1534</v>
       </c>
       <c r="H56" t="s">
-        <v>1867</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7508,13 +7460,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="G57" t="s">
-        <v>1551</v>
+        <v>1535</v>
       </c>
       <c r="H57" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7534,13 +7486,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="G58" t="s">
-        <v>1552</v>
+        <v>1536</v>
       </c>
       <c r="H58" t="s">
-        <v>1868</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7560,13 +7512,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="G59" t="s">
-        <v>1553</v>
+        <v>1537</v>
       </c>
       <c r="H59" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7586,13 +7538,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="G60" t="s">
-        <v>1554</v>
+        <v>1538</v>
       </c>
       <c r="H60" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7612,13 +7564,13 @@
         <v>1278</v>
       </c>
       <c r="F61" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G61" t="s">
-        <v>1555</v>
+        <v>1539</v>
       </c>
       <c r="H61" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7638,13 +7590,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="G62" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="H62" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7664,13 +7616,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G63" t="s">
-        <v>1557</v>
+        <v>1541</v>
       </c>
       <c r="H63" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7690,13 +7642,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G64" t="s">
-        <v>1558</v>
+        <v>1542</v>
       </c>
       <c r="H64" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7722,7 +7674,7 @@
         <v>947</v>
       </c>
       <c r="H65" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7742,13 +7694,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="G66" t="s">
-        <v>1559</v>
+        <v>1543</v>
       </c>
       <c r="H66" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7768,13 +7720,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G67" t="s">
-        <v>1560</v>
+        <v>1544</v>
       </c>
       <c r="H67" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7794,13 +7746,13 @@
         <v>1294</v>
       </c>
       <c r="F68" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G68" t="s">
-        <v>1561</v>
+        <v>1545</v>
       </c>
       <c r="H68" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7823,10 +7775,10 @@
         <v>1294</v>
       </c>
       <c r="G69" t="s">
-        <v>1562</v>
+        <v>1546</v>
       </c>
       <c r="H69" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7846,13 +7798,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="G70" t="s">
-        <v>1563</v>
+        <v>1547</v>
       </c>
       <c r="H70" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7872,13 +7824,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1378</v>
+        <v>1358</v>
       </c>
       <c r="G71" t="s">
-        <v>1564</v>
+        <v>1548</v>
       </c>
       <c r="H71" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7898,13 +7850,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G72" t="s">
-        <v>1565</v>
+        <v>1549</v>
       </c>
       <c r="H72" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7930,7 +7882,7 @@
         <v>947</v>
       </c>
       <c r="H73" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7950,13 +7902,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="G74" t="s">
-        <v>1566</v>
+        <v>1550</v>
       </c>
       <c r="H74" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7976,13 +7928,13 @@
         <v>1276</v>
       </c>
       <c r="F75" t="s">
-        <v>1351</v>
+        <v>1276</v>
       </c>
       <c r="G75" t="s">
-        <v>1567</v>
+        <v>1551</v>
       </c>
       <c r="H75" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -8002,13 +7954,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1337</v>
+        <v>1370</v>
       </c>
       <c r="G76" t="s">
-        <v>1568</v>
+        <v>1552</v>
       </c>
       <c r="H76" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8028,13 +7980,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="G77" t="s">
-        <v>1569</v>
+        <v>1553</v>
       </c>
       <c r="H77" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8054,13 +8006,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G78" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
       <c r="H78" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8080,13 +8032,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G79" t="s">
-        <v>1571</v>
+        <v>1555</v>
       </c>
       <c r="H79" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8112,7 +8064,7 @@
         <v>933</v>
       </c>
       <c r="H80" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8132,13 +8084,13 @@
         <v>1278</v>
       </c>
       <c r="F81" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G81" t="s">
-        <v>1572</v>
+        <v>1556</v>
       </c>
       <c r="H81" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8164,7 +8116,7 @@
         <v>1065</v>
       </c>
       <c r="H82" t="s">
-        <v>1868</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8190,7 +8142,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8210,13 +8162,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="G84" t="s">
-        <v>1573</v>
+        <v>1557</v>
       </c>
       <c r="H84" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8236,13 +8188,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G85" t="s">
-        <v>1574</v>
+        <v>1558</v>
       </c>
       <c r="H85" t="s">
-        <v>1870</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8262,13 +8214,13 @@
         <v>1278</v>
       </c>
       <c r="F86" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1575</v>
+        <v>1559</v>
       </c>
       <c r="H86" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8288,13 +8240,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G87" t="s">
-        <v>1576</v>
+        <v>1560</v>
       </c>
       <c r="H87" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8314,13 +8266,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="G88" t="s">
-        <v>1577</v>
+        <v>1561</v>
       </c>
       <c r="H88" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8340,13 +8292,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="G89" t="s">
-        <v>1578</v>
+        <v>1562</v>
       </c>
       <c r="H89" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8366,13 +8318,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="G90" t="s">
-        <v>1579</v>
+        <v>1563</v>
       </c>
       <c r="H90" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8392,13 +8344,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="G91" t="s">
-        <v>1580</v>
+        <v>1564</v>
       </c>
       <c r="H91" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8418,13 +8370,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1347</v>
+        <v>1375</v>
       </c>
       <c r="G92" t="s">
-        <v>1581</v>
+        <v>1565</v>
       </c>
       <c r="H92" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8444,13 +8396,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="G93" t="s">
-        <v>1582</v>
+        <v>1566</v>
       </c>
       <c r="H93" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8470,13 +8422,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="G94" t="s">
-        <v>1583</v>
+        <v>1567</v>
       </c>
       <c r="H94" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8496,13 +8448,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1365</v>
+        <v>1377</v>
       </c>
       <c r="G95" t="s">
-        <v>1584</v>
+        <v>1568</v>
       </c>
       <c r="H95" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8522,13 +8474,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1361</v>
+        <v>1337</v>
       </c>
       <c r="G96" t="s">
-        <v>1585</v>
+        <v>1569</v>
       </c>
       <c r="H96" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8548,13 +8500,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G97" t="s">
-        <v>1586</v>
+        <v>1570</v>
       </c>
       <c r="H97" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8574,13 +8526,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="G98" t="s">
-        <v>1587</v>
+        <v>1571</v>
       </c>
       <c r="H98" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8600,13 +8552,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G99" t="s">
-        <v>1588</v>
+        <v>1572</v>
       </c>
       <c r="H99" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8626,13 +8578,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G100" t="s">
-        <v>1589</v>
+        <v>1573</v>
       </c>
       <c r="H100" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8652,13 +8604,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1343</v>
+        <v>1378</v>
       </c>
       <c r="G101" t="s">
-        <v>1590</v>
+        <v>1574</v>
       </c>
       <c r="H101" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8681,10 +8633,10 @@
         <v>1276</v>
       </c>
       <c r="G102" t="s">
-        <v>1591</v>
+        <v>1575</v>
       </c>
       <c r="H102" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8704,13 +8656,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G103" t="s">
-        <v>1592</v>
+        <v>1576</v>
       </c>
       <c r="H103" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8730,13 +8682,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="G104" t="s">
-        <v>1593</v>
+        <v>1577</v>
       </c>
       <c r="H104" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8762,7 +8714,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8782,13 +8734,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G106" t="s">
-        <v>1594</v>
+        <v>1578</v>
       </c>
       <c r="H106" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8808,13 +8760,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="G107" t="s">
-        <v>1595</v>
+        <v>1579</v>
       </c>
       <c r="H107" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8834,13 +8786,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="G108" t="s">
-        <v>1596</v>
+        <v>1580</v>
       </c>
       <c r="H108" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8863,10 +8815,10 @@
         <v>1278</v>
       </c>
       <c r="G109" t="s">
-        <v>1597</v>
+        <v>1581</v>
       </c>
       <c r="H109" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8892,7 +8844,7 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8918,7 +8870,7 @@
         <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8938,13 +8890,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="G112" t="s">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="H112" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8964,13 +8916,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1347</v>
+        <v>1375</v>
       </c>
       <c r="G113" t="s">
-        <v>1599</v>
+        <v>1583</v>
       </c>
       <c r="H113" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8996,7 +8948,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -9016,13 +8968,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G115" t="s">
-        <v>1596</v>
+        <v>1580</v>
       </c>
       <c r="H115" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -9042,13 +8994,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="G116" t="s">
-        <v>1600</v>
+        <v>1584</v>
       </c>
       <c r="H116" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -9068,13 +9020,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="G117" t="s">
-        <v>1601</v>
+        <v>1585</v>
       </c>
       <c r="H117" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -9094,13 +9046,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="G118" t="s">
-        <v>1602</v>
+        <v>1586</v>
       </c>
       <c r="H118" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -9120,13 +9072,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="G119" t="s">
-        <v>1603</v>
+        <v>1587</v>
       </c>
       <c r="H119" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -9146,13 +9098,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="G120" t="s">
-        <v>1604</v>
+        <v>1588</v>
       </c>
       <c r="H120" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9172,13 +9124,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="G121" t="s">
-        <v>1605</v>
+        <v>1589</v>
       </c>
       <c r="H121" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9204,7 +9156,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9224,13 +9176,13 @@
         <v>1278</v>
       </c>
       <c r="F123" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="G123" t="s">
-        <v>1606</v>
+        <v>1590</v>
       </c>
       <c r="H123" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9256,7 +9208,7 @@
         <v>1035</v>
       </c>
       <c r="H124" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9276,13 +9228,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1393</v>
+        <v>1358</v>
       </c>
       <c r="G125" t="s">
-        <v>1607</v>
+        <v>1591</v>
       </c>
       <c r="H125" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9302,13 +9254,13 @@
         <v>1278</v>
       </c>
       <c r="F126" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G126" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="H126" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9328,13 +9280,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1364</v>
+        <v>1337</v>
       </c>
       <c r="G127" t="s">
-        <v>1609</v>
+        <v>1593</v>
       </c>
       <c r="H127" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9360,7 +9312,7 @@
         <v>947</v>
       </c>
       <c r="H128" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9380,13 +9332,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="G129" t="s">
-        <v>1610</v>
+        <v>1594</v>
       </c>
       <c r="H129" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9406,13 +9358,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="G130" t="s">
-        <v>1611</v>
+        <v>1595</v>
       </c>
       <c r="H130" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9432,13 +9384,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="G131" t="s">
-        <v>1612</v>
+        <v>1596</v>
       </c>
       <c r="H131" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9464,7 +9416,7 @@
         <v>1240</v>
       </c>
       <c r="H132" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9490,7 +9442,7 @@
         <v>933</v>
       </c>
       <c r="H133" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9510,13 +9462,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="G134" t="s">
-        <v>1613</v>
+        <v>1597</v>
       </c>
       <c r="H134" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9536,13 +9488,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="G135" t="s">
-        <v>1614</v>
+        <v>1598</v>
       </c>
       <c r="H135" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9562,13 +9514,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G136" t="s">
-        <v>1615</v>
+        <v>1599</v>
       </c>
       <c r="H136" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9588,13 +9540,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="G137" t="s">
-        <v>1616</v>
+        <v>1600</v>
       </c>
       <c r="H137" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9620,7 +9572,7 @@
         <v>1025</v>
       </c>
       <c r="H138" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9640,13 +9592,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="G139" t="s">
-        <v>1617</v>
+        <v>1601</v>
       </c>
       <c r="H139" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9666,13 +9618,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="G140" t="s">
-        <v>1618</v>
+        <v>1602</v>
       </c>
       <c r="H140" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9692,13 +9644,13 @@
         <v>1278</v>
       </c>
       <c r="F141" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G141" t="s">
-        <v>1619</v>
+        <v>1603</v>
       </c>
       <c r="H141" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9718,13 +9670,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="G142" t="s">
-        <v>1620</v>
+        <v>1604</v>
       </c>
       <c r="H142" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9744,13 +9696,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="G143" t="s">
-        <v>1621</v>
+        <v>1605</v>
       </c>
       <c r="H143" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9770,13 +9722,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1378</v>
+        <v>1397</v>
       </c>
       <c r="G144" t="s">
-        <v>1622</v>
+        <v>1606</v>
       </c>
       <c r="H144" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9796,13 +9748,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="G145" t="s">
-        <v>1623</v>
+        <v>1607</v>
       </c>
       <c r="H145" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9822,13 +9774,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="G146" t="s">
-        <v>1624</v>
+        <v>1608</v>
       </c>
       <c r="H146" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9848,13 +9800,13 @@
         <v>1276</v>
       </c>
       <c r="F147" t="s">
-        <v>1373</v>
+        <v>1276</v>
       </c>
       <c r="G147" t="s">
-        <v>1625</v>
+        <v>1609</v>
       </c>
       <c r="H147" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9874,13 +9826,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1378</v>
+        <v>1397</v>
       </c>
       <c r="G148" t="s">
-        <v>1626</v>
+        <v>1610</v>
       </c>
       <c r="H148" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9900,13 +9852,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G149" t="s">
-        <v>1627</v>
+        <v>1611</v>
       </c>
       <c r="H149" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9926,13 +9878,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="G150" t="s">
-        <v>1628</v>
+        <v>1612</v>
       </c>
       <c r="H150" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9952,13 +9904,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="G151" t="s">
-        <v>1629</v>
+        <v>1613</v>
       </c>
       <c r="H151" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9978,13 +9930,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="G152" t="s">
-        <v>1630</v>
+        <v>1614</v>
       </c>
       <c r="H152" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -10004,13 +9956,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="G153" t="s">
-        <v>1631</v>
+        <v>1615</v>
       </c>
       <c r="H153" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -10030,13 +9982,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="G154" t="s">
-        <v>1632</v>
+        <v>1616</v>
       </c>
       <c r="H154" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -10056,13 +10008,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G155" t="s">
-        <v>1633</v>
+        <v>1617</v>
       </c>
       <c r="H155" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -10088,7 +10040,7 @@
         <v>1062</v>
       </c>
       <c r="H156" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -10108,13 +10060,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="G157" t="s">
-        <v>1634</v>
+        <v>1618</v>
       </c>
       <c r="H157" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10134,13 +10086,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="G158" t="s">
-        <v>1635</v>
+        <v>1619</v>
       </c>
       <c r="H158" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -10166,7 +10118,7 @@
         <v>1065</v>
       </c>
       <c r="H159" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10192,7 +10144,7 @@
         <v>1095</v>
       </c>
       <c r="H160" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10218,7 +10170,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10244,7 +10196,7 @@
         <v>1062</v>
       </c>
       <c r="H162" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10264,13 +10216,13 @@
         <v>1278</v>
       </c>
       <c r="F163" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G163" t="s">
-        <v>1636</v>
+        <v>1620</v>
       </c>
       <c r="H163" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10296,7 +10248,7 @@
         <v>996</v>
       </c>
       <c r="H164" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10316,13 +10268,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1393</v>
+        <v>1358</v>
       </c>
       <c r="G165" t="s">
-        <v>1637</v>
+        <v>1621</v>
       </c>
       <c r="H165" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10345,10 +10297,10 @@
         <v>1278</v>
       </c>
       <c r="G166" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="H166" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10368,13 +10320,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="G167" t="s">
-        <v>1639</v>
+        <v>1623</v>
       </c>
       <c r="H167" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10394,13 +10346,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="G168" t="s">
-        <v>1640</v>
+        <v>1624</v>
       </c>
       <c r="H168" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10426,7 +10378,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10449,10 +10401,10 @@
         <v>1294</v>
       </c>
       <c r="G170" t="s">
-        <v>1641</v>
+        <v>1625</v>
       </c>
       <c r="H170" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10472,13 +10424,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="G171" t="s">
-        <v>1642</v>
+        <v>1626</v>
       </c>
       <c r="H171" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10498,13 +10450,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G172" t="s">
-        <v>1643</v>
+        <v>1627</v>
       </c>
       <c r="H172" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10524,13 +10476,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G173" t="s">
-        <v>1644</v>
+        <v>1628</v>
       </c>
       <c r="H173" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10550,13 +10502,13 @@
         <v>1277</v>
       </c>
       <c r="F174" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G174" t="s">
-        <v>1645</v>
+        <v>1629</v>
       </c>
       <c r="H174" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10576,13 +10528,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G175" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
       <c r="H175" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10602,13 +10554,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="G176" t="s">
-        <v>1646</v>
+        <v>1630</v>
       </c>
       <c r="H176" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10628,13 +10580,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="G177" t="s">
-        <v>1577</v>
+        <v>1561</v>
       </c>
       <c r="H177" t="s">
-        <v>1864</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10654,13 +10606,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="G178" t="s">
-        <v>1577</v>
+        <v>1561</v>
       </c>
       <c r="H178" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10680,13 +10632,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="G179" t="s">
-        <v>1647</v>
+        <v>1631</v>
       </c>
       <c r="H179" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10706,13 +10658,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1393</v>
+        <v>1407</v>
       </c>
       <c r="G180" t="s">
-        <v>1648</v>
+        <v>1632</v>
       </c>
       <c r="H180" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10732,13 +10684,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="G181" t="s">
-        <v>1649</v>
+        <v>1633</v>
       </c>
       <c r="H181" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10758,13 +10710,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G182" t="s">
-        <v>1650</v>
+        <v>1634</v>
       </c>
       <c r="H182" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10784,13 +10736,13 @@
         <v>1278</v>
       </c>
       <c r="F183" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G183" t="s">
-        <v>1651</v>
+        <v>1635</v>
       </c>
       <c r="H183" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10810,13 +10762,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G184" t="s">
-        <v>1652</v>
+        <v>1636</v>
       </c>
       <c r="H184" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10836,13 +10788,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="G185" t="s">
-        <v>1653</v>
+        <v>1637</v>
       </c>
       <c r="H185" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10868,7 +10820,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10894,7 +10846,7 @@
         <v>933</v>
       </c>
       <c r="H187" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10920,7 +10872,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10946,7 +10898,7 @@
         <v>1095</v>
       </c>
       <c r="H189" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10972,7 +10924,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10992,13 +10944,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1415</v>
+        <v>1348</v>
       </c>
       <c r="G191" t="s">
-        <v>1654</v>
+        <v>1638</v>
       </c>
       <c r="H191" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -11018,13 +10970,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="G192" t="s">
-        <v>1655</v>
+        <v>1639</v>
       </c>
       <c r="H192" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -11044,13 +10996,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="G193" t="s">
-        <v>1656</v>
+        <v>1640</v>
       </c>
       <c r="H193" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -11070,13 +11022,13 @@
         <v>1278</v>
       </c>
       <c r="F194" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G194" t="s">
-        <v>1657</v>
+        <v>1641</v>
       </c>
       <c r="H194" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -11102,7 +11054,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -11128,7 +11080,7 @@
         <v>1095</v>
       </c>
       <c r="H196" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -11154,7 +11106,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11174,7 +11126,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11194,13 +11146,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1417</v>
+        <v>1375</v>
       </c>
       <c r="G199" t="s">
-        <v>1658</v>
+        <v>1642</v>
       </c>
       <c r="H199" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11226,7 +11178,7 @@
         <v>1046</v>
       </c>
       <c r="H200" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11246,13 +11198,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1337</v>
+        <v>1370</v>
       </c>
       <c r="G201" t="s">
-        <v>1659</v>
+        <v>1643</v>
       </c>
       <c r="H201" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11272,13 +11224,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="G202" t="s">
-        <v>1660</v>
+        <v>1644</v>
       </c>
       <c r="H202" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11304,7 +11256,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11324,13 +11276,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="G204" t="s">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="H204" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11350,13 +11302,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1662</v>
+        <v>1646</v>
       </c>
       <c r="H205" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11376,13 +11328,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="G206" t="s">
-        <v>1663</v>
+        <v>1647</v>
       </c>
       <c r="H206" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11402,13 +11354,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="G207" t="s">
-        <v>1664</v>
+        <v>1648</v>
       </c>
       <c r="H207" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11428,13 +11380,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="G208" t="s">
-        <v>1665</v>
+        <v>1649</v>
       </c>
       <c r="H208" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11454,13 +11406,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G209" t="s">
-        <v>1666</v>
+        <v>1650</v>
       </c>
       <c r="H209" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11483,10 +11435,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1667</v>
+        <v>1651</v>
       </c>
       <c r="H210" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11506,13 +11458,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="G211" t="s">
-        <v>1668</v>
+        <v>1652</v>
       </c>
       <c r="H211" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11532,13 +11484,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G212" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="H212" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11564,7 +11516,7 @@
         <v>1106</v>
       </c>
       <c r="H213" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11584,13 +11536,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="G214" t="s">
-        <v>1670</v>
+        <v>1654</v>
       </c>
       <c r="H214" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11610,13 +11562,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G215" t="s">
-        <v>1671</v>
+        <v>1655</v>
       </c>
       <c r="H215" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11636,13 +11588,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="G216" t="s">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="H216" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11662,13 +11614,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="G217" t="s">
-        <v>1673</v>
+        <v>1657</v>
       </c>
       <c r="H217" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11688,13 +11640,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="G218" t="s">
-        <v>1674</v>
+        <v>1658</v>
       </c>
       <c r="H218" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11714,13 +11666,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1365</v>
+        <v>1377</v>
       </c>
       <c r="G219" t="s">
-        <v>1675</v>
+        <v>1659</v>
       </c>
       <c r="H219" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11740,13 +11692,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G220" t="s">
-        <v>1676</v>
+        <v>1660</v>
       </c>
       <c r="H220" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11766,13 +11718,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="G221" t="s">
-        <v>1677</v>
+        <v>1661</v>
       </c>
       <c r="H221" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11792,13 +11744,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="G222" t="s">
-        <v>1678</v>
+        <v>1662</v>
       </c>
       <c r="H222" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11818,13 +11770,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="G223" t="s">
-        <v>1679</v>
+        <v>1663</v>
       </c>
       <c r="H223" t="s">
-        <v>1877</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11844,13 +11796,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="G224" t="s">
-        <v>1680</v>
+        <v>1664</v>
       </c>
       <c r="H224" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11876,7 +11828,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11896,13 +11848,13 @@
         <v>1276</v>
       </c>
       <c r="F226" t="s">
-        <v>1351</v>
+        <v>1276</v>
       </c>
       <c r="G226" t="s">
-        <v>1625</v>
+        <v>1609</v>
       </c>
       <c r="H226" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11922,13 +11874,13 @@
         <v>1285</v>
       </c>
       <c r="F227" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="G227" t="s">
-        <v>1681</v>
+        <v>1665</v>
       </c>
       <c r="H227" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11951,10 +11903,10 @@
         <v>1294</v>
       </c>
       <c r="G228" t="s">
-        <v>1682</v>
+        <v>1666</v>
       </c>
       <c r="H228" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11980,7 +11932,7 @@
         <v>947</v>
       </c>
       <c r="H229" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -12000,13 +11952,13 @@
         <v>1294</v>
       </c>
       <c r="F230" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G230" t="s">
-        <v>1683</v>
+        <v>1667</v>
       </c>
       <c r="H230" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -12026,13 +11978,13 @@
         <v>1276</v>
       </c>
       <c r="F231" t="s">
-        <v>1414</v>
+        <v>1276</v>
       </c>
       <c r="G231" t="s">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="H231" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -12055,10 +12007,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="H232" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -12078,13 +12030,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="G233" t="s">
-        <v>1686</v>
+        <v>1670</v>
       </c>
       <c r="H233" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -12104,13 +12056,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="G234" t="s">
-        <v>1687</v>
+        <v>1671</v>
       </c>
       <c r="H234" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -12130,13 +12082,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="G235" t="s">
-        <v>1688</v>
+        <v>1672</v>
       </c>
       <c r="H235" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -12156,13 +12108,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="G236" t="s">
-        <v>1689</v>
+        <v>1673</v>
       </c>
       <c r="H236" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12182,13 +12134,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1429</v>
+        <v>1402</v>
       </c>
       <c r="G237" t="s">
-        <v>1690</v>
+        <v>1674</v>
       </c>
       <c r="H237" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12208,13 +12160,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="G238" t="s">
-        <v>1691</v>
+        <v>1675</v>
       </c>
       <c r="H238" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12234,13 +12186,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="G239" t="s">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="H239" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12260,13 +12212,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="G240" t="s">
-        <v>1693</v>
+        <v>1677</v>
       </c>
       <c r="H240" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12286,13 +12238,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1432</v>
+        <v>1370</v>
       </c>
       <c r="G241" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="H241" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12312,13 +12264,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="G242" t="s">
-        <v>1695</v>
+        <v>1679</v>
       </c>
       <c r="H242" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12344,7 +12296,7 @@
         <v>947</v>
       </c>
       <c r="H243" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12370,7 +12322,7 @@
         <v>931</v>
       </c>
       <c r="H244" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12396,7 +12348,7 @@
         <v>947</v>
       </c>
       <c r="H245" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12422,7 +12374,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12442,13 +12394,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="G247" t="s">
-        <v>1696</v>
+        <v>1680</v>
       </c>
       <c r="H247" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12468,13 +12420,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="G248" t="s">
-        <v>1697</v>
+        <v>1681</v>
       </c>
       <c r="H248" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12494,13 +12446,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1360</v>
+        <v>1427</v>
       </c>
       <c r="G249" t="s">
-        <v>1698</v>
+        <v>1682</v>
       </c>
       <c r="H249" t="s">
-        <v>1860</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12520,13 +12472,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G250" t="s">
-        <v>1699</v>
+        <v>1683</v>
       </c>
       <c r="H250" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12546,13 +12498,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="G251" t="s">
-        <v>1700</v>
+        <v>1684</v>
       </c>
       <c r="H251" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12575,7 +12527,7 @@
         <v>1132</v>
       </c>
       <c r="H252" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12595,13 +12547,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="G253" t="s">
-        <v>1701</v>
+        <v>1685</v>
       </c>
       <c r="H253" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12627,7 +12579,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12647,13 +12599,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="G255" t="s">
-        <v>1702</v>
+        <v>1686</v>
       </c>
       <c r="H255" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12676,10 +12628,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1703</v>
+        <v>1687</v>
       </c>
       <c r="H256" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12699,13 +12651,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1508</v>
+        <v>1492</v>
       </c>
       <c r="H257" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12725,13 +12677,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="G258" t="s">
-        <v>1704</v>
+        <v>1688</v>
       </c>
       <c r="H258" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12751,13 +12703,13 @@
         <v>1285</v>
       </c>
       <c r="F259" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="G259" t="s">
-        <v>1705</v>
+        <v>1689</v>
       </c>
       <c r="H259" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12780,10 +12732,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1703</v>
+        <v>1687</v>
       </c>
       <c r="H260" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12809,7 +12761,7 @@
         <v>1138</v>
       </c>
       <c r="H261" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12835,7 +12787,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12855,13 +12807,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="G263" t="s">
-        <v>1706</v>
+        <v>1690</v>
       </c>
       <c r="H263" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12887,7 +12839,7 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12907,13 +12859,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="G265" t="s">
-        <v>1707</v>
+        <v>1691</v>
       </c>
       <c r="H265" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12933,13 +12885,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="G266" t="s">
-        <v>1708</v>
+        <v>1692</v>
       </c>
       <c r="H266" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12959,13 +12911,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="G267" t="s">
-        <v>1709</v>
+        <v>1693</v>
       </c>
       <c r="H267" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12985,13 +12937,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="G268" t="s">
-        <v>1710</v>
+        <v>1694</v>
       </c>
       <c r="H268" t="s">
-        <v>1865</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -13011,13 +12963,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="G269" t="s">
-        <v>1711</v>
+        <v>1695</v>
       </c>
       <c r="H269" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -13037,13 +12989,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1343</v>
+        <v>1378</v>
       </c>
       <c r="G270" t="s">
-        <v>1712</v>
+        <v>1696</v>
       </c>
       <c r="H270" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -13063,13 +13015,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="G271" t="s">
-        <v>1713</v>
+        <v>1697</v>
       </c>
       <c r="H271" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -13089,13 +13041,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="G272" t="s">
-        <v>1714</v>
+        <v>1698</v>
       </c>
       <c r="H272" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -13115,13 +13067,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1443</v>
+        <v>1342</v>
       </c>
       <c r="G273" t="s">
-        <v>1715</v>
+        <v>1699</v>
       </c>
       <c r="H273" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -13141,13 +13093,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="G274" t="s">
-        <v>1716</v>
+        <v>1700</v>
       </c>
       <c r="H274" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13167,13 +13119,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="G275" t="s">
-        <v>1717</v>
+        <v>1701</v>
       </c>
       <c r="H275" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13193,13 +13145,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1718</v>
+        <v>1702</v>
       </c>
       <c r="H276" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13219,13 +13171,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1446</v>
+        <v>1347</v>
       </c>
       <c r="G277" t="s">
-        <v>1719</v>
+        <v>1703</v>
       </c>
       <c r="H277" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13245,13 +13197,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="G278" t="s">
-        <v>1720</v>
+        <v>1704</v>
       </c>
       <c r="H278" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13277,7 +13229,7 @@
         <v>1022</v>
       </c>
       <c r="H279" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13297,13 +13249,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="G280" t="s">
-        <v>1721</v>
+        <v>1705</v>
       </c>
       <c r="H280" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13323,13 +13275,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="G281" t="s">
-        <v>1722</v>
+        <v>1706</v>
       </c>
       <c r="H281" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13349,13 +13301,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="G282" t="s">
-        <v>1723</v>
+        <v>1707</v>
       </c>
       <c r="H282" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13381,7 +13333,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13401,13 +13353,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="G284" t="s">
-        <v>1724</v>
+        <v>1708</v>
       </c>
       <c r="H284" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13427,13 +13379,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="G285" t="s">
-        <v>1725</v>
+        <v>1709</v>
       </c>
       <c r="H285" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13453,13 +13405,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="G286" t="s">
-        <v>1726</v>
+        <v>1710</v>
       </c>
       <c r="H286" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13485,7 +13437,7 @@
         <v>933</v>
       </c>
       <c r="H287" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13505,13 +13457,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="G288" t="s">
-        <v>1727</v>
+        <v>1711</v>
       </c>
       <c r="H288" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13531,13 +13483,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="G289" t="s">
-        <v>1728</v>
+        <v>1712</v>
       </c>
       <c r="H289" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13557,13 +13509,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G290" t="s">
-        <v>1729</v>
+        <v>1713</v>
       </c>
       <c r="H290" t="s">
-        <v>1865</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13583,13 +13535,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1455</v>
+        <v>1369</v>
       </c>
       <c r="G291" t="s">
-        <v>1730</v>
+        <v>1714</v>
       </c>
       <c r="H291" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13609,13 +13561,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="G292" t="s">
-        <v>1731</v>
+        <v>1715</v>
       </c>
       <c r="H292" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13635,13 +13587,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G293" t="s">
-        <v>1732</v>
+        <v>1716</v>
       </c>
       <c r="H293" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13667,7 +13619,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13687,13 +13639,13 @@
         <v>1276</v>
       </c>
       <c r="F295" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="G295" t="s">
-        <v>1733</v>
+        <v>1717</v>
       </c>
       <c r="H295" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13719,7 +13671,7 @@
         <v>947</v>
       </c>
       <c r="H296" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13739,13 +13691,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="G297" t="s">
-        <v>1734</v>
+        <v>1718</v>
       </c>
       <c r="H297" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13765,13 +13717,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="G298" t="s">
-        <v>1735</v>
+        <v>1719</v>
       </c>
       <c r="H298" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13797,7 +13749,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13823,7 +13775,7 @@
         <v>951</v>
       </c>
       <c r="H300" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13846,10 +13798,10 @@
         <v>1276</v>
       </c>
       <c r="G301" t="s">
-        <v>1736</v>
+        <v>1720</v>
       </c>
       <c r="H301" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13869,13 +13821,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="G302" t="s">
-        <v>1737</v>
+        <v>1721</v>
       </c>
       <c r="H302" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13895,13 +13847,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="G303" t="s">
-        <v>1738</v>
+        <v>1722</v>
       </c>
       <c r="H303" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13927,7 +13879,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13953,7 +13905,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13973,13 +13925,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="G306" t="s">
-        <v>1739</v>
+        <v>1723</v>
       </c>
       <c r="H306" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -14005,7 +13957,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -14025,13 +13977,13 @@
         <v>1279</v>
       </c>
       <c r="F308" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G308" t="s">
-        <v>1740</v>
+        <v>1724</v>
       </c>
       <c r="H308" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -14051,13 +14003,13 @@
         <v>1300</v>
       </c>
       <c r="F309" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="G309" t="s">
-        <v>1741</v>
+        <v>1725</v>
       </c>
       <c r="H309" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -14083,7 +14035,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -14106,10 +14058,10 @@
         <v>1278</v>
       </c>
       <c r="G311" t="s">
-        <v>1742</v>
+        <v>1726</v>
       </c>
       <c r="H311" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -14135,7 +14087,7 @@
         <v>1089</v>
       </c>
       <c r="H312" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -14155,13 +14107,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="G313" t="s">
-        <v>1743</v>
+        <v>1727</v>
       </c>
       <c r="H313" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14187,7 +14139,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14207,13 +14159,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="G315" t="s">
-        <v>1744</v>
+        <v>1728</v>
       </c>
       <c r="H315" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14233,13 +14185,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1415</v>
+        <v>1348</v>
       </c>
       <c r="G316" t="s">
-        <v>1745</v>
+        <v>1729</v>
       </c>
       <c r="H316" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14265,7 +14217,7 @@
         <v>947</v>
       </c>
       <c r="H317" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14291,7 +14243,7 @@
         <v>933</v>
       </c>
       <c r="H318" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14317,7 +14269,7 @@
         <v>1171</v>
       </c>
       <c r="H319" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14343,7 +14295,7 @@
         <v>1089</v>
       </c>
       <c r="H320" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14363,13 +14315,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1337</v>
+        <v>1370</v>
       </c>
       <c r="G321" t="s">
-        <v>1746</v>
+        <v>1730</v>
       </c>
       <c r="H321" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14389,13 +14341,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1337</v>
+        <v>1370</v>
       </c>
       <c r="G322" t="s">
-        <v>1747</v>
+        <v>1731</v>
       </c>
       <c r="H322" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14415,13 +14367,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="G323" t="s">
-        <v>1748</v>
+        <v>1732</v>
       </c>
       <c r="H323" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14441,13 +14393,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="G324" t="s">
-        <v>1749</v>
+        <v>1733</v>
       </c>
       <c r="H324" t="s">
-        <v>1864</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14473,7 +14425,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14499,7 +14451,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14519,13 +14471,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="G327" t="s">
-        <v>1750</v>
+        <v>1734</v>
       </c>
       <c r="H327" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14545,13 +14497,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="G328" t="s">
-        <v>1751</v>
+        <v>1735</v>
       </c>
       <c r="H328" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14571,13 +14523,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="G329" t="s">
-        <v>1752</v>
+        <v>1736</v>
       </c>
       <c r="H329" t="s">
-        <v>1879</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14597,13 +14549,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="G330" t="s">
-        <v>1753</v>
+        <v>1737</v>
       </c>
       <c r="H330" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14623,13 +14575,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="G331" t="s">
-        <v>1754</v>
+        <v>1738</v>
       </c>
       <c r="H331" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14649,13 +14601,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="G332" t="s">
-        <v>1755</v>
+        <v>1739</v>
       </c>
       <c r="H332" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14675,13 +14627,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1351</v>
+        <v>1276</v>
       </c>
       <c r="G333" t="s">
-        <v>1625</v>
+        <v>1609</v>
       </c>
       <c r="H333" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14701,13 +14653,13 @@
         <v>1285</v>
       </c>
       <c r="F334" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1756</v>
+        <v>1740</v>
       </c>
       <c r="H334" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14727,13 +14679,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="G335" t="s">
-        <v>1757</v>
+        <v>1741</v>
       </c>
       <c r="H335" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14753,13 +14705,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="G336" t="s">
-        <v>1758</v>
+        <v>1742</v>
       </c>
       <c r="H336" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14779,13 +14731,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="G337" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="H337" t="s">
-        <v>1864</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14805,13 +14757,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="G338" t="s">
-        <v>1760</v>
+        <v>1744</v>
       </c>
       <c r="H338" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14837,7 +14789,7 @@
         <v>1089</v>
       </c>
       <c r="H339" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14860,10 +14812,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="H340" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14883,13 +14835,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="G341" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
       <c r="H341" t="s">
-        <v>1880</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14915,7 +14867,7 @@
         <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14935,13 +14887,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="G343" t="s">
-        <v>1763</v>
+        <v>1747</v>
       </c>
       <c r="H343" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14961,13 +14913,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="G344" t="s">
-        <v>1764</v>
+        <v>1748</v>
       </c>
       <c r="H344" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14987,13 +14939,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="G345" t="s">
-        <v>1765</v>
+        <v>1749</v>
       </c>
       <c r="H345" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -15019,7 +14971,7 @@
         <v>1089</v>
       </c>
       <c r="H346" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -15039,13 +14991,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="G347" t="s">
-        <v>1766</v>
+        <v>1750</v>
       </c>
       <c r="H347" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -15071,7 +15023,7 @@
         <v>951</v>
       </c>
       <c r="H348" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -15097,7 +15049,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -15117,13 +15069,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="G350" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="H350" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -15143,13 +15095,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1470</v>
+        <v>1342</v>
       </c>
       <c r="G351" t="s">
-        <v>1715</v>
+        <v>1699</v>
       </c>
       <c r="H351" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15169,13 +15121,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="G352" t="s">
-        <v>1768</v>
+        <v>1752</v>
       </c>
       <c r="H352" t="s">
-        <v>1868</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15195,13 +15147,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="G353" t="s">
-        <v>1769</v>
+        <v>1753</v>
       </c>
       <c r="H353" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15221,13 +15173,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G354" t="s">
-        <v>1770</v>
+        <v>1754</v>
       </c>
       <c r="H354" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15247,13 +15199,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="G355" t="s">
-        <v>1771</v>
+        <v>1755</v>
       </c>
       <c r="H355" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15279,7 +15231,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15299,13 +15251,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1473</v>
+        <v>1372</v>
       </c>
       <c r="G357" t="s">
-        <v>1772</v>
+        <v>1756</v>
       </c>
       <c r="H357" t="s">
-        <v>1881</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15325,13 +15277,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1414</v>
+        <v>1276</v>
       </c>
       <c r="G358" t="s">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="H358" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15351,13 +15303,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1446</v>
+        <v>1422</v>
       </c>
       <c r="G359" t="s">
-        <v>1773</v>
+        <v>1757</v>
       </c>
       <c r="H359" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15377,13 +15329,13 @@
         <v>1285</v>
       </c>
       <c r="F360" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G360" t="s">
-        <v>1732</v>
+        <v>1716</v>
       </c>
       <c r="H360" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15403,13 +15355,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="G361" t="s">
-        <v>1774</v>
+        <v>1758</v>
       </c>
       <c r="H361" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15429,13 +15381,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="G362" t="s">
-        <v>1775</v>
+        <v>1759</v>
       </c>
       <c r="H362" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15455,13 +15407,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1474</v>
+        <v>1463</v>
       </c>
       <c r="G363" t="s">
-        <v>1776</v>
+        <v>1760</v>
       </c>
       <c r="H363" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15481,13 +15433,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="G364" t="s">
-        <v>1777</v>
+        <v>1761</v>
       </c>
       <c r="H364" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15507,13 +15459,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1475</v>
+        <v>1338</v>
       </c>
       <c r="G365" t="s">
-        <v>1778</v>
+        <v>1762</v>
       </c>
       <c r="H365" t="s">
-        <v>1882</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15539,7 +15491,7 @@
         <v>1089</v>
       </c>
       <c r="H366" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15565,7 +15517,7 @@
         <v>933</v>
       </c>
       <c r="H367" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15585,13 +15537,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1337</v>
+        <v>1370</v>
       </c>
       <c r="G368" t="s">
-        <v>1779</v>
+        <v>1763</v>
       </c>
       <c r="H368" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15611,13 +15563,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G369" t="s">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="H369" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15637,13 +15589,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="G370" t="s">
-        <v>1781</v>
+        <v>1765</v>
       </c>
       <c r="H370" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15663,13 +15615,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="G371" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="H371" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15689,13 +15641,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1337</v>
+        <v>1370</v>
       </c>
       <c r="G372" t="s">
-        <v>1783</v>
+        <v>1767</v>
       </c>
       <c r="H372" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15715,13 +15667,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G373" t="s">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="H373" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15744,10 +15696,10 @@
         <v>1278</v>
       </c>
       <c r="G374" t="s">
-        <v>1785</v>
+        <v>1769</v>
       </c>
       <c r="H374" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15767,13 +15719,13 @@
         <v>1285</v>
       </c>
       <c r="F375" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G375" t="s">
-        <v>1786</v>
+        <v>1770</v>
       </c>
       <c r="H375" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15793,13 +15745,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="G376" t="s">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="H376" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15819,13 +15771,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="G377" t="s">
-        <v>1788</v>
+        <v>1772</v>
       </c>
       <c r="H377" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15845,13 +15797,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="G378" t="s">
-        <v>1789</v>
+        <v>1773</v>
       </c>
       <c r="H378" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15871,13 +15823,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="G379" t="s">
-        <v>1790</v>
+        <v>1774</v>
       </c>
       <c r="H379" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15903,7 +15855,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15923,13 +15875,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
       <c r="G381" t="s">
-        <v>1791</v>
+        <v>1775</v>
       </c>
       <c r="H381" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15949,13 +15901,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
       <c r="G382" t="s">
-        <v>1792</v>
+        <v>1776</v>
       </c>
       <c r="H382" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15975,13 +15927,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="G383" t="s">
-        <v>1793</v>
+        <v>1777</v>
       </c>
       <c r="H383" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -16004,10 +15956,10 @@
         <v>1470</v>
       </c>
       <c r="G384" t="s">
-        <v>1794</v>
+        <v>1778</v>
       </c>
       <c r="H384" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -16027,13 +15979,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="G385" t="s">
-        <v>1795</v>
+        <v>1779</v>
       </c>
       <c r="H385" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -16053,13 +16005,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="G386" t="s">
-        <v>1796</v>
+        <v>1780</v>
       </c>
       <c r="H386" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -16085,7 +16037,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -16105,13 +16057,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1483</v>
+        <v>1472</v>
       </c>
       <c r="G388" t="s">
-        <v>1797</v>
+        <v>1781</v>
       </c>
       <c r="H388" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -16131,13 +16083,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1360</v>
+        <v>1427</v>
       </c>
       <c r="G389" t="s">
-        <v>1798</v>
+        <v>1782</v>
       </c>
       <c r="H389" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -16157,13 +16109,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G390" t="s">
-        <v>1799</v>
+        <v>1783</v>
       </c>
       <c r="H390" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16183,13 +16135,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="G391" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="H391" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16209,13 +16161,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1485</v>
+        <v>1474</v>
       </c>
       <c r="G392" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="H392" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16241,7 +16193,7 @@
         <v>1046</v>
       </c>
       <c r="H393" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16261,13 +16213,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1486</v>
+        <v>1370</v>
       </c>
       <c r="G394" t="s">
-        <v>1802</v>
+        <v>1786</v>
       </c>
       <c r="H394" t="s">
-        <v>1868</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16293,7 +16245,7 @@
         <v>1089</v>
       </c>
       <c r="H395" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16313,13 +16265,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="G396" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="H396" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16339,13 +16291,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="G397" t="s">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="H397" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16365,13 +16317,13 @@
         <v>1294</v>
       </c>
       <c r="F398" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="G398" t="s">
-        <v>1804</v>
+        <v>1788</v>
       </c>
       <c r="H398" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16397,7 +16349,7 @@
         <v>968</v>
       </c>
       <c r="H399" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16417,13 +16369,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="G400" t="s">
-        <v>1577</v>
+        <v>1561</v>
       </c>
       <c r="H400" t="s">
-        <v>1884</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16443,13 +16395,13 @@
         <v>1294</v>
       </c>
       <c r="F401" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G401" t="s">
-        <v>1805</v>
+        <v>1789</v>
       </c>
       <c r="H401" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16469,13 +16421,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="G402" t="s">
-        <v>1806</v>
+        <v>1790</v>
       </c>
       <c r="H402" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16495,13 +16447,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1356</v>
+        <v>1477</v>
       </c>
       <c r="G403" t="s">
-        <v>1807</v>
+        <v>1791</v>
       </c>
       <c r="H403" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16521,13 +16473,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G404" t="s">
-        <v>1808</v>
+        <v>1792</v>
       </c>
       <c r="H404" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16547,13 +16499,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G405" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
       <c r="H405" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16579,7 +16531,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16599,13 +16551,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1489</v>
+        <v>1478</v>
       </c>
       <c r="G407" t="s">
-        <v>1809</v>
+        <v>1793</v>
       </c>
       <c r="H407" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16625,13 +16577,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1347</v>
+        <v>1375</v>
       </c>
       <c r="G408" t="s">
-        <v>1810</v>
+        <v>1794</v>
       </c>
       <c r="H408" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16651,13 +16603,13 @@
         <v>1285</v>
       </c>
       <c r="F409" t="s">
-        <v>1351</v>
+        <v>1276</v>
       </c>
       <c r="G409" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
       <c r="H409" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16683,7 +16635,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16703,13 +16655,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="G411" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
       <c r="H411" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16729,13 +16681,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1490</v>
+        <v>1479</v>
       </c>
       <c r="G412" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
       <c r="H412" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16755,13 +16707,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1491</v>
+        <v>1459</v>
       </c>
       <c r="G413" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
       <c r="H413" t="s">
-        <v>1870</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16781,13 +16733,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="G414" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
       <c r="H414" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16807,13 +16759,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
       <c r="G415" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
       <c r="H415" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16839,7 +16791,7 @@
         <v>1240</v>
       </c>
       <c r="H416" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16859,13 +16811,13 @@
         <v>1285</v>
       </c>
       <c r="F417" t="s">
-        <v>1351</v>
+        <v>1276</v>
       </c>
       <c r="G417" t="s">
-        <v>1817</v>
+        <v>1801</v>
       </c>
       <c r="H417" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16885,13 +16837,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G418" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
       <c r="H418" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16911,13 +16863,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="G419" t="s">
-        <v>1819</v>
+        <v>1803</v>
       </c>
       <c r="H419" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16937,13 +16889,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="G420" t="s">
-        <v>1820</v>
+        <v>1804</v>
       </c>
       <c r="H420" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16963,13 +16915,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="G421" t="s">
-        <v>1821</v>
+        <v>1805</v>
       </c>
       <c r="H421" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16989,13 +16941,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G422" t="s">
-        <v>1534</v>
+        <v>1518</v>
       </c>
       <c r="H422" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -17021,7 +16973,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -17047,7 +16999,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -17067,13 +17019,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="G425" t="s">
-        <v>1822</v>
+        <v>1806</v>
       </c>
       <c r="H425" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -17093,13 +17045,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="G426" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
       <c r="H426" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -17119,13 +17071,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1494</v>
+        <v>1436</v>
       </c>
       <c r="G427" t="s">
-        <v>1824</v>
+        <v>1808</v>
       </c>
       <c r="H427" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -17148,10 +17100,10 @@
         <v>1278</v>
       </c>
       <c r="G428" t="s">
-        <v>1825</v>
+        <v>1809</v>
       </c>
       <c r="H428" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -17171,13 +17123,13 @@
         <v>1285</v>
       </c>
       <c r="F429" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="G429" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
       <c r="H429" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17197,13 +17149,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G430" t="s">
-        <v>1827</v>
+        <v>1811</v>
       </c>
       <c r="H430" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17223,13 +17175,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1337</v>
+        <v>1370</v>
       </c>
       <c r="G431" t="s">
-        <v>1828</v>
+        <v>1812</v>
       </c>
       <c r="H431" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17249,13 +17201,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="G432" t="s">
-        <v>1829</v>
+        <v>1813</v>
       </c>
       <c r="H432" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17281,7 +17233,7 @@
         <v>968</v>
       </c>
       <c r="H433" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17301,13 +17253,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1497</v>
+        <v>1393</v>
       </c>
       <c r="G434" t="s">
-        <v>1830</v>
+        <v>1814</v>
       </c>
       <c r="H434" t="s">
-        <v>1882</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17327,13 +17279,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
       <c r="G435" t="s">
-        <v>1831</v>
+        <v>1815</v>
       </c>
       <c r="H435" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17353,13 +17305,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1414</v>
+        <v>1276</v>
       </c>
       <c r="G436" t="s">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="H436" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17379,13 +17331,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1351</v>
+        <v>1276</v>
       </c>
       <c r="G437" t="s">
-        <v>1832</v>
+        <v>1816</v>
       </c>
       <c r="H437" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17411,7 +17363,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17434,10 +17386,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1833</v>
+        <v>1817</v>
       </c>
       <c r="H439" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17463,7 +17415,7 @@
         <v>1227</v>
       </c>
       <c r="H440" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17483,13 +17435,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
       <c r="G441" t="s">
-        <v>1834</v>
+        <v>1818</v>
       </c>
       <c r="H441" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17509,13 +17461,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1500</v>
+        <v>1423</v>
       </c>
       <c r="G442" t="s">
-        <v>1835</v>
+        <v>1819</v>
       </c>
       <c r="H442" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17538,10 +17490,10 @@
         <v>1294</v>
       </c>
       <c r="G443" t="s">
-        <v>1836</v>
+        <v>1820</v>
       </c>
       <c r="H443" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17561,13 +17513,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1360</v>
+        <v>1427</v>
       </c>
       <c r="G444" t="s">
-        <v>1837</v>
+        <v>1821</v>
       </c>
       <c r="H444" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17587,13 +17539,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1501</v>
+        <v>1462</v>
       </c>
       <c r="G445" t="s">
-        <v>1838</v>
+        <v>1822</v>
       </c>
       <c r="H445" t="s">
-        <v>1887</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17613,13 +17565,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1360</v>
+        <v>1427</v>
       </c>
       <c r="G446" t="s">
-        <v>1839</v>
+        <v>1823</v>
       </c>
       <c r="H446" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17639,13 +17591,13 @@
         <v>1322</v>
       </c>
       <c r="F447" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G447" t="s">
-        <v>1840</v>
+        <v>1824</v>
       </c>
       <c r="H447" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17665,13 +17617,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G448" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H448" t="s">
         <v>1841</v>
-      </c>
-      <c r="H448" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17691,13 +17643,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G449" t="s">
-        <v>1842</v>
+        <v>1826</v>
       </c>
       <c r="H449" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17717,13 +17669,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="G450" t="s">
-        <v>1843</v>
+        <v>1827</v>
       </c>
       <c r="H450" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17743,13 +17695,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1502</v>
+        <v>1486</v>
       </c>
       <c r="G451" t="s">
-        <v>1844</v>
+        <v>1828</v>
       </c>
       <c r="H451" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17769,13 +17721,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="G452" t="s">
-        <v>1845</v>
+        <v>1829</v>
       </c>
       <c r="H452" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17795,13 +17747,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1503</v>
+        <v>1487</v>
       </c>
       <c r="G453" t="s">
-        <v>1846</v>
+        <v>1830</v>
       </c>
       <c r="H453" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17827,7 +17779,7 @@
         <v>947</v>
       </c>
       <c r="H454" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17847,13 +17799,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1504</v>
+        <v>1488</v>
       </c>
       <c r="G455" t="s">
-        <v>1847</v>
+        <v>1831</v>
       </c>
       <c r="H455" t="s">
-        <v>1879</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17873,13 +17825,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="G456" t="s">
-        <v>1749</v>
+        <v>1733</v>
       </c>
       <c r="H456" t="s">
-        <v>1877</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17899,13 +17851,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1505</v>
+        <v>1489</v>
       </c>
       <c r="G457" t="s">
-        <v>1848</v>
+        <v>1832</v>
       </c>
       <c r="H457" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17928,10 +17880,10 @@
         <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1849</v>
+        <v>1833</v>
       </c>
       <c r="H458" t="s">
-        <v>1888</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17951,10 +17903,10 @@
         <v>1294</v>
       </c>
       <c r="G459" t="s">
-        <v>1850</v>
+        <v>1834</v>
       </c>
       <c r="H459" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17980,7 +17932,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -18000,13 +17952,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1506</v>
+        <v>1490</v>
       </c>
       <c r="G461" t="s">
-        <v>1851</v>
+        <v>1835</v>
       </c>
       <c r="H461" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -18026,13 +17978,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="G462" t="s">
-        <v>1852</v>
+        <v>1836</v>
       </c>
       <c r="H462" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -18055,10 +18007,10 @@
         <v>1278</v>
       </c>
       <c r="G463" t="s">
-        <v>1853</v>
+        <v>1837</v>
       </c>
       <c r="H463" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
     </row>
   </sheetData>
